--- a/SasView graphs/sphere comparison/comparison calcs.xlsx
+++ b/SasView graphs/sphere comparison/comparison calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theyo\OneDrive\Documents\!winter term project\SasView graphs\sphere comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC7A76-1788-4BA4-BBF7-C0D35654BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BD111-69C8-40FC-A250-8616162CB01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="10690" windowWidth="25820" windowHeight="15620" xr2:uid="{0E6673EC-02F2-473B-8BAA-E4345120FE39}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{0E6673EC-02F2-473B-8BAA-E4345120FE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>n2</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Mparl2</t>
+  </si>
+  <si>
+    <t>a90mag</t>
+  </si>
+  <si>
+    <t>a0mag</t>
+  </si>
+  <si>
+    <t>mparl1mag</t>
   </si>
 </sst>
 </file>
@@ -1510,21 +1519,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD94FFE-5916-457C-827E-0CD9D2EB13FF}">
-  <dimension ref="A1:BM48"/>
+  <dimension ref="A1:CC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BM7" sqref="BM7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CB2" sqref="CB2:CC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="36" max="36" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1558,8 +1568,17 @@
       <c r="BE1" t="s">
         <v>9</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.72153753182300695</v>
       </c>
@@ -1675,8 +1694,40 @@
       <c r="BM2">
         <v>91701661.146706998</v>
       </c>
+      <c r="BQ2" s="1">
+        <v>0.59579113615846901</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>83068500</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>4557.0961148520801</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0.59579113615846901</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>1025532</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>506.34276927788699</v>
+      </c>
+      <c r="BY2" s="1">
+        <f>BQ2</f>
+        <v>0.59579113615846901</v>
+      </c>
+      <c r="BZ2" s="1">
+        <f>BR2-BV2</f>
+        <v>82042968</v>
+      </c>
+      <c r="CB2">
+        <v>0.59579113615846901</v>
+      </c>
+      <c r="CC2">
+        <v>82042968</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.92401889164667494</v>
       </c>
@@ -1792,8 +1843,40 @@
       <c r="BM3">
         <v>87957819.864354596</v>
       </c>
+      <c r="BQ3" s="1">
+        <v>1.1464572560803299</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>91932350</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>3389.9179562343302</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1.1464572560803299</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>92821.499999999898</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>107.71577182567</v>
+      </c>
+      <c r="BY3" s="1">
+        <f t="shared" ref="BY3:BY33" si="7">BQ3</f>
+        <v>1.1464572560803299</v>
+      </c>
+      <c r="BZ3" s="1">
+        <f t="shared" ref="BZ3:BZ33" si="8">BR3-BV3</f>
+        <v>91839528.5</v>
+      </c>
+      <c r="CB3">
+        <v>1.1464572560803299</v>
+      </c>
+      <c r="CC3">
+        <v>91839528.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1.1270776548150201</v>
       </c>
@@ -1909,8 +1992,40 @@
       <c r="BM4">
         <v>82455031.380290061</v>
       </c>
+      <c r="BQ4" s="1">
+        <v>1.6427707253130599</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>75701433.333333299</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>2511.6633488144398</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1.6427707253130599</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>1056075.4833333299</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>296.65854155540097</v>
+      </c>
+      <c r="BY4" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6427707253130599</v>
+      </c>
+      <c r="BZ4" s="1">
+        <f t="shared" si="8"/>
+        <v>74645357.849999964</v>
+      </c>
+      <c r="CB4">
+        <v>1.6427707253130599</v>
+      </c>
+      <c r="CC4">
+        <v>74645357.849999994</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1.33044947044952</v>
       </c>
@@ -2026,8 +2141,40 @@
       <c r="BM5">
         <v>75840466.495098785</v>
       </c>
+      <c r="BQ5" s="1">
+        <v>2.1113565414819702</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>64873825</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>2013.6072264719301</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>2.1113565414819702</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>1888358.03</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>343.54385000316898</v>
+      </c>
+      <c r="BY5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1113565414819702</v>
+      </c>
+      <c r="BZ5" s="1">
+        <f t="shared" si="8"/>
+        <v>62985466.969999999</v>
+      </c>
+      <c r="CB5">
+        <v>2.1113565414819702</v>
+      </c>
+      <c r="CC5">
+        <v>62985466.969999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1.5340098345278399</v>
       </c>
@@ -2143,8 +2290,40 @@
       <c r="BM6">
         <v>68515340.776753753</v>
       </c>
+      <c r="BQ6" s="1">
+        <v>2.5314534679570202</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>66558600</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>2355.1114623303902</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>2.5314534679570202</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>471495.79666666599</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>198.220373294192</v>
+      </c>
+      <c r="BY6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5314534679570202</v>
+      </c>
+      <c r="BZ6" s="1">
+        <f t="shared" si="8"/>
+        <v>66087104.203333333</v>
+      </c>
+      <c r="CB6">
+        <v>2.5314534679570202</v>
+      </c>
+      <c r="CC6">
+        <v>66087104.203333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.73769248631902</v>
       </c>
@@ -2260,8 +2439,40 @@
       <c r="BM7">
         <v>60794635.276974671</v>
       </c>
+      <c r="BQ7" s="1">
+        <v>2.9670454625516101</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>55076733.333333299</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>1514.8808167274699</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>2.9670454625516101</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>1054280.199</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>209.590891083081</v>
+      </c>
+      <c r="BY7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9670454625516101</v>
+      </c>
+      <c r="BZ7" s="1">
+        <f t="shared" si="8"/>
+        <v>54022453.134333298</v>
+      </c>
+      <c r="CB7">
+        <v>2.9670454625516101</v>
+      </c>
+      <c r="CC7">
+        <v>54022453.134333298</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.95212661490366</v>
       </c>
@@ -2377,8 +2588,40 @@
       <c r="BM8">
         <v>51413222.978554666</v>
       </c>
+      <c r="BQ8" s="1">
+        <v>3.4812550479410098</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>46961733.333333299</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>1398.83483259779</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>3.4812550479410098</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>690004.00566666597</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>169.558741746858</v>
+      </c>
+      <c r="BY8" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4812550479410098</v>
+      </c>
+      <c r="BZ8" s="1">
+        <f t="shared" si="8"/>
+        <v>46271729.327666633</v>
+      </c>
+      <c r="CB8">
+        <v>3.4812550479410098</v>
+      </c>
+      <c r="CC8">
+        <v>46271729.327666633</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2.1549489529196402</v>
       </c>
@@ -2494,8 +2737,40 @@
       <c r="BM9">
         <v>44071708.98519522</v>
       </c>
+      <c r="BQ9" s="1">
+        <v>3.9170548818825202</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>39853800</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>1288.63299662859</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>3.9170548818825202</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>428639.56599999999</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>133.641243322062</v>
+      </c>
+      <c r="BY9" s="1">
+        <f t="shared" si="7"/>
+        <v>3.9170548818825202</v>
+      </c>
+      <c r="BZ9" s="1">
+        <f t="shared" si="8"/>
+        <v>39425160.434</v>
+      </c>
+      <c r="CB9">
+        <v>3.9170548818825202</v>
+      </c>
+      <c r="CC9">
+        <v>39425160.434</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2.3579875446902498</v>
       </c>
@@ -2611,8 +2886,40 @@
       <c r="BM10">
         <v>36955424.329081662</v>
       </c>
+      <c r="BQ10" s="1">
+        <v>4.3733044951693101</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>31190314.285714202</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>1055.4334635202499</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>4.3733044951693101</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>473796.42371428502</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>130.08190053554199</v>
+      </c>
+      <c r="BY10" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3733044951693101</v>
+      </c>
+      <c r="BZ10" s="1">
+        <f t="shared" si="8"/>
+        <v>30716517.861999918</v>
+      </c>
+      <c r="CB10">
+        <v>4.3733044951693101</v>
+      </c>
+      <c r="CC10">
+        <v>30716517.861999918</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2.5611912566541801</v>
       </c>
@@ -2728,8 +3035,40 @@
       <c r="BM11">
         <v>30264399.889950383</v>
       </c>
+      <c r="BQ11" s="1">
+        <v>4.8241163260031001</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>23873587.5</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>863.74163346165005</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>4.8241163260031001</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>459761.7085375</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>119.86472955710001</v>
+      </c>
+      <c r="BY11" s="1">
+        <f t="shared" si="7"/>
+        <v>4.8241163260031001</v>
+      </c>
+      <c r="BZ11" s="1">
+        <f t="shared" si="8"/>
+        <v>23413825.7914625</v>
+      </c>
+      <c r="CB11">
+        <v>4.8241163260031001</v>
+      </c>
+      <c r="CC11">
+        <v>23413825.7914625</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2.7569910379808702</v>
       </c>
@@ -2845,8 +3184,40 @@
       <c r="BM12">
         <v>24150525.46409858</v>
       </c>
+      <c r="BQ12" s="1">
+        <v>5.2907119448448698</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>18742581</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>684.51773169144406</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>5.2907119448448698</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>229821.36992999999</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>75.799302425879802</v>
+      </c>
+      <c r="BY12" s="1">
+        <f t="shared" si="7"/>
+        <v>5.2907119448448698</v>
+      </c>
+      <c r="BZ12" s="1">
+        <f t="shared" si="8"/>
+        <v>18512759.630070001</v>
+      </c>
+      <c r="CB12">
+        <v>5.2907119448448698</v>
+      </c>
+      <c r="CC12">
+        <v>18512759.630070001</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2.7720566749400199</v>
       </c>
@@ -2962,8 +3333,40 @@
       <c r="BM13">
         <v>18719634.196192205</v>
       </c>
+      <c r="BQ13" s="1">
+        <v>5.7580271933354998</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>12969214.444444399</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>600.21325942545002</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>5.7580271933354998</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>203127.97981888801</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>75.116202538853202</v>
+      </c>
+      <c r="BY13" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7580271933354998</v>
+      </c>
+      <c r="BZ13" s="1">
+        <f t="shared" si="8"/>
+        <v>12766086.464625511</v>
+      </c>
+      <c r="CB13">
+        <v>5.7580271933354998</v>
+      </c>
+      <c r="CC13">
+        <v>12766086.464625511</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2.9609424752136499</v>
       </c>
@@ -3079,8 +3482,40 @@
       <c r="BM14">
         <v>17035487.122488961</v>
       </c>
+      <c r="BQ14" s="1">
+        <v>6.1846473727436599</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>8979686</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>473.80602571094403</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>6.1846473727436599</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>130491.19695</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>57.116371766333302</v>
+      </c>
+      <c r="BY14" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1846473727436599</v>
+      </c>
+      <c r="BZ14" s="1">
+        <f t="shared" si="8"/>
+        <v>8849194.8030500002</v>
+      </c>
+      <c r="CB14">
+        <v>6.1846473727436599</v>
+      </c>
+      <c r="CC14">
+        <v>8849194.8030500002</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.9889100721097299</v>
       </c>
@@ -3196,8 +3631,40 @@
       <c r="BM15">
         <v>14033817.18099344</v>
       </c>
+      <c r="BQ15" s="1">
+        <v>6.6426929207342003</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>5608607.2727272697</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>357.027095760865</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>6.6426929207342003</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>96453.014287272701</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>46.820016671017697</v>
+      </c>
+      <c r="BY15" s="1">
+        <f t="shared" si="7"/>
+        <v>6.6426929207342003</v>
+      </c>
+      <c r="BZ15" s="1">
+        <f t="shared" si="8"/>
+        <v>5512154.2584399972</v>
+      </c>
+      <c r="CB15">
+        <v>6.6426929207342003</v>
+      </c>
+      <c r="CC15">
+        <v>5512154.2584399972</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>3.1714769307824699</v>
       </c>
@@ -3313,8 +3780,40 @@
       <c r="BM16">
         <v>12810012.037140684</v>
       </c>
+      <c r="BQ16" s="1">
+        <v>7.1164216125825197</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>3200297</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>248.080980885119</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>7.1164216125825197</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>56866.803736076901</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>33.069508305082799</v>
+      </c>
+      <c r="BY16" s="1">
+        <f t="shared" si="7"/>
+        <v>7.1164216125825197</v>
+      </c>
+      <c r="BZ16" s="1">
+        <f t="shared" si="8"/>
+        <v>3143430.1962639233</v>
+      </c>
+      <c r="CB16">
+        <v>7.1164216125825197</v>
+      </c>
+      <c r="CC16">
+        <v>3143430.1962639233</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3.2041466261444</v>
       </c>
@@ -3430,8 +3929,40 @@
       <c r="BM17">
         <v>10114757.938674906</v>
       </c>
+      <c r="BQ17" s="1">
+        <v>7.5771729299476398</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>1660123.92307692</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>178.676971261468</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>7.5771729299476398</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>20231.9866974615</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>19.725026419725602</v>
+      </c>
+      <c r="BY17" s="1">
+        <f t="shared" si="7"/>
+        <v>7.5771729299476398</v>
+      </c>
+      <c r="BZ17" s="1">
+        <f t="shared" si="8"/>
+        <v>1639891.9363794585</v>
+      </c>
+      <c r="CB17">
+        <v>7.5771729299476398</v>
+      </c>
+      <c r="CC17">
+        <v>1639891.9363794585</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3.3750628107142902</v>
       </c>
@@ -3547,8 +4078,40 @@
       <c r="BM18">
         <v>9244243.0220489353</v>
       </c>
+      <c r="BQ18" s="1">
+        <v>8.0410176816867391</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>617916.64285714203</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>105.04392302892199</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>8.0410176816867303</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>12275.733116592801</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>14.805725917331999</v>
+      </c>
+      <c r="BY18" s="1">
+        <f t="shared" si="7"/>
+        <v>8.0410176816867391</v>
+      </c>
+      <c r="BZ18" s="1">
+        <f t="shared" si="8"/>
+        <v>605640.90974054928</v>
+      </c>
+      <c r="CB18">
+        <v>8.0410176816867391</v>
+      </c>
+      <c r="CC18">
+        <v>605640.90974054928</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>3.4057794425058399</v>
       </c>
@@ -3664,8 +4227,40 @@
       <c r="BM19">
         <v>6948303.1222502021</v>
       </c>
+      <c r="BQ19" s="1">
+        <v>8.5171526970291307</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>143129.50666666601</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>48.841496473570203</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>8.5171526970291307</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>2320.1887546733301</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>6.2185056547283803</v>
+      </c>
+      <c r="BY19" s="1">
+        <f t="shared" si="7"/>
+        <v>8.5171526970291307</v>
+      </c>
+      <c r="BZ19" s="1">
+        <f t="shared" si="8"/>
+        <v>140809.31791199269</v>
+      </c>
+      <c r="CB19">
+        <v>8.5171526970291307</v>
+      </c>
+      <c r="CC19">
+        <v>140809.31791199269</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3.5787050479858999</v>
       </c>
@@ -3781,8 +4376,40 @@
       <c r="BM20">
         <v>6346048.1515806373</v>
       </c>
+      <c r="BQ20" s="1">
+        <v>8.9734574253130504</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>6473.1927642857099</v>
+      </c>
+      <c r="BS20" s="1">
+        <v>10.751405858476</v>
+      </c>
+      <c r="BU20" s="1">
+        <v>8.9734574253130504</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>152.359746076428</v>
+      </c>
+      <c r="BW20" s="1">
+        <v>1.6494574112006599</v>
+      </c>
+      <c r="BY20" s="1">
+        <f t="shared" si="7"/>
+        <v>8.9734574253130504</v>
+      </c>
+      <c r="BZ20" s="1">
+        <f t="shared" si="8"/>
+        <v>6320.8330182092823</v>
+      </c>
+      <c r="CB20">
+        <v>8.9734574253130504</v>
+      </c>
+      <c r="CC20">
+        <v>6320.8330182092823</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>3.60768765911503</v>
       </c>
@@ -3898,8 +4525,40 @@
       <c r="BM21">
         <v>4573898.3172731381</v>
       </c>
+      <c r="BQ21" s="1">
+        <v>9.4044566534303708</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>69490.300666666604</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>34.031921452920898</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>9.4044566534303708</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>824.32137821866604</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>3.7065738407561399</v>
+      </c>
+      <c r="BY21" s="1">
+        <f t="shared" si="7"/>
+        <v>9.4044566534303708</v>
+      </c>
+      <c r="BZ21" s="1">
+        <f t="shared" si="8"/>
+        <v>68665.979288447939</v>
+      </c>
+      <c r="CB21">
+        <v>9.4044566534303708</v>
+      </c>
+      <c r="CC21">
+        <v>68665.979288447939</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3.7915388720535201</v>
       </c>
@@ -4015,8 +4674,40 @@
       <c r="BM22">
         <v>4247347.4759366354</v>
       </c>
+      <c r="BQ22" s="1">
+        <v>9.8678238655229809</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>229187.85</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>56.419540793357498</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>9.8678238655229897</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>3593.0126411055498</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>7.0642022443223</v>
+      </c>
+      <c r="BY22" s="1">
+        <f t="shared" si="7"/>
+        <v>9.8678238655229809</v>
+      </c>
+      <c r="BZ22" s="1">
+        <f t="shared" si="8"/>
+        <v>225594.83735889447</v>
+      </c>
+      <c r="CB22">
+        <v>9.8678238655229809</v>
+      </c>
+      <c r="CC22">
+        <v>225594.83735889447</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3.9948040591888798</v>
       </c>
@@ -4132,8 +4823,40 @@
       <c r="BM23">
         <v>2725613.4666862902</v>
       </c>
+      <c r="BQ23" s="1">
+        <v>10.3559150385476</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>411861.052631578</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>73.615381386849407</v>
+      </c>
+      <c r="BU23" s="1">
+        <v>10.3559150385476</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>7547.9336577000004</v>
+      </c>
+      <c r="BW23" s="1">
+        <v>9.9656869581923004</v>
+      </c>
+      <c r="BY23" s="1">
+        <f t="shared" si="7"/>
+        <v>10.3559150385476</v>
+      </c>
+      <c r="BZ23" s="1">
+        <f t="shared" si="8"/>
+        <v>404313.11897387798</v>
+      </c>
+      <c r="CB23">
+        <v>10.3559150385476</v>
+      </c>
+      <c r="CC23">
+        <v>404313.11897387798</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>4.1981481546644703</v>
       </c>
@@ -4249,8 +4972,40 @@
       <c r="BM24">
         <v>2518372.2292036898</v>
       </c>
+      <c r="BQ24" s="1">
+        <v>10.8077430716124</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>566637</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>94.094118439995995</v>
+      </c>
+      <c r="BU24" s="1">
+        <v>10.8077430716124</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>7197.4903956749904</v>
+      </c>
+      <c r="BW24" s="1">
+        <v>10.6047530585309</v>
+      </c>
+      <c r="BY24" s="1">
+        <f t="shared" si="7"/>
+        <v>10.8077430716124</v>
+      </c>
+      <c r="BZ24" s="1">
+        <f t="shared" si="8"/>
+        <v>559439.50960432505</v>
+      </c>
+      <c r="CB24">
+        <v>10.8077430716124</v>
+      </c>
+      <c r="CC24">
+        <v>559439.50960432505</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>4.2442110904255896</v>
       </c>
@@ -4366,8 +5121,40 @@
       <c r="BM25">
         <v>1294644.0971259137</v>
       </c>
+      <c r="BQ25" s="1">
+        <v>11.235110727921599</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>617729.94736842101</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>90.1555634626543</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>11.235110727921599</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>11834.468414868399</v>
+      </c>
+      <c r="BW25" s="1">
+        <v>12.478649352767301</v>
+      </c>
+      <c r="BY25" s="1">
+        <f t="shared" si="7"/>
+        <v>11.235110727921599</v>
+      </c>
+      <c r="BZ25" s="1">
+        <f t="shared" si="8"/>
+        <v>605895.47895355267</v>
+      </c>
+      <c r="CB25">
+        <v>11.235110727921599</v>
+      </c>
+      <c r="CC25">
+        <v>605895.47895355267</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4.4125488246206199</v>
       </c>
@@ -4483,8 +5270,40 @@
       <c r="BM26">
         <v>550025.05385876435</v>
       </c>
+      <c r="BQ26" s="1">
+        <v>11.731979175648</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>652958.13043478201</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>84.245895941504202</v>
+      </c>
+      <c r="BU26" s="1">
+        <v>11.731979175648</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>9287.8827848043493</v>
+      </c>
+      <c r="BW26" s="1">
+        <v>10.047648862341701</v>
+      </c>
+      <c r="BY26" s="1">
+        <f t="shared" si="7"/>
+        <v>11.731979175648</v>
+      </c>
+      <c r="BZ26" s="1">
+        <f t="shared" si="8"/>
+        <v>643670.24764997768</v>
+      </c>
+      <c r="CB26">
+        <v>11.731979175648</v>
+      </c>
+      <c r="CC26">
+        <v>643670.24764997768</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4.59297038160281</v>
       </c>
@@ -4600,8 +5419,40 @@
       <c r="BM27">
         <v>150430.8632769832</v>
       </c>
+      <c r="BQ27" s="1">
+        <v>12.2081186056856</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>587373.10526315705</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>87.912419431526899</v>
+      </c>
+      <c r="BU27" s="1">
+        <v>12.2081186056856</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>8749.7781983420991</v>
+      </c>
+      <c r="BW27" s="1">
+        <v>10.729802444802999</v>
+      </c>
+      <c r="BY27" s="1">
+        <f t="shared" si="7"/>
+        <v>12.2081186056856</v>
+      </c>
+      <c r="BZ27" s="1">
+        <f t="shared" si="8"/>
+        <v>578623.32706481498</v>
+      </c>
+      <c r="CB27">
+        <v>12.2081186056856</v>
+      </c>
+      <c r="CC27">
+        <v>578623.32706481498</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>4.6230613936309002</v>
       </c>
@@ -4717,8 +5568,40 @@
       <c r="BM28">
         <v>6596.651898233742</v>
       </c>
+      <c r="BQ28" s="1">
+        <v>12.6409080321618</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>495020.3</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>78.6622765371051</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>12.6409080321618</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>7189.8768597150001</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>9.4801614303996597</v>
+      </c>
+      <c r="BY28" s="1">
+        <f t="shared" si="7"/>
+        <v>12.6409080321618</v>
+      </c>
+      <c r="BZ28" s="1">
+        <f t="shared" si="8"/>
+        <v>487830.42314028501</v>
+      </c>
+      <c r="CB28">
+        <v>12.6409080321618</v>
+      </c>
+      <c r="CC28">
+        <v>487830.42314028501</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4.80134104344077</v>
       </c>
@@ -4834,8 +5717,40 @@
       <c r="BM29">
         <v>36087.811199778407</v>
       </c>
+      <c r="BQ29" s="1">
+        <v>13.085891245760299</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>368300.409090909</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>64.693368450619403</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>13.085891245760299</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>6659.8302174727196</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>8.6994188791503309</v>
+      </c>
+      <c r="BY29" s="1">
+        <f t="shared" si="7"/>
+        <v>13.085891245760299</v>
+      </c>
+      <c r="BZ29" s="1">
+        <f t="shared" si="8"/>
+        <v>361640.57887343626</v>
+      </c>
+      <c r="CB29">
+        <v>13.085891245760299</v>
+      </c>
+      <c r="CC29">
+        <v>361640.57887343626</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4.8358993201251401</v>
       </c>
@@ -4951,8 +5866,40 @@
       <c r="BM30">
         <v>167036.67845820222</v>
       </c>
+      <c r="BQ30" s="1">
+        <v>13.541423819374099</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>224524.26923076899</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>65.709774069646699</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>13.541423819374099</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>6918.8262307692203</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>11.5349187509802</v>
+      </c>
+      <c r="BY30" s="1">
+        <f t="shared" si="7"/>
+        <v>13.541423819374099</v>
+      </c>
+      <c r="BZ30" s="1">
+        <f t="shared" si="8"/>
+        <v>217605.44299999977</v>
+      </c>
+      <c r="CB30">
+        <v>13.541423819374099</v>
+      </c>
+      <c r="CC30">
+        <v>217605.44299999977</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5.0052017272400802</v>
       </c>
@@ -5068,8 +6015,40 @@
       <c r="BM31">
         <v>340571.79603530839</v>
       </c>
+      <c r="BQ31" s="1">
+        <v>14.013836626267899</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>116876.75</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>60.435076218202902</v>
+      </c>
+      <c r="BU31" s="1">
+        <v>14.013836626267899</v>
+      </c>
+      <c r="BV31" s="1">
+        <v>5841.2462500000001</v>
+      </c>
+      <c r="BW31" s="1">
+        <v>13.5106974398992</v>
+      </c>
+      <c r="BY31" s="1">
+        <f t="shared" si="7"/>
+        <v>14.013836626267899</v>
+      </c>
+      <c r="BZ31" s="1">
+        <f t="shared" si="8"/>
+        <v>111035.50375</v>
+      </c>
+      <c r="CB31">
+        <v>14.013836626267899</v>
+      </c>
+      <c r="CC31">
+        <v>111035.50375</v>
+      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>5.0383630666916996</v>
       </c>
@@ -5185,8 +6164,40 @@
       <c r="BM32">
         <v>374155.07758011681</v>
       </c>
+      <c r="BQ32" s="1">
+        <v>14.414741265751699</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>57331.65</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>59.860071207775803</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>14.414741265751699</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>3451.65</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>14.6876861690328</v>
+      </c>
+      <c r="BY32" s="1">
+        <f t="shared" si="7"/>
+        <v>14.414741265751699</v>
+      </c>
+      <c r="BZ32" s="1">
+        <f t="shared" si="8"/>
+        <v>53880</v>
+      </c>
+      <c r="CB32">
+        <v>14.414741265751699</v>
+      </c>
+      <c r="CC32">
+        <v>53880</v>
+      </c>
     </row>
-    <row r="33" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO33" s="1">
         <v>10.3981780105306</v>
       </c>
@@ -5242,8 +6253,40 @@
       <c r="BM33">
         <v>511956.83409134654</v>
       </c>
+      <c r="BQ33" s="1">
+        <v>14.841985482861601</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>17621.09</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>46.932251703918901</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>14.841985482861601</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>1608.7470000000001</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>14.1807395787384</v>
+      </c>
+      <c r="BY33" s="1">
+        <f t="shared" si="7"/>
+        <v>14.841985482861601</v>
+      </c>
+      <c r="BZ33" s="1">
+        <f t="shared" si="8"/>
+        <v>16012.343000000001</v>
+      </c>
+      <c r="CB33">
+        <v>14.841985482861601</v>
+      </c>
+      <c r="CC33">
+        <v>16012.343000000001</v>
+      </c>
     </row>
-    <row r="34" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO34" s="1">
         <v>10.500137525229301</v>
       </c>
@@ -5300,7 +6343,7 @@
         <v>532007.95668036561</v>
       </c>
     </row>
-    <row r="35" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="35" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO35" s="1">
         <v>10.773738605754399</v>
       </c>
@@ -5357,7 +6400,7 @@
         <v>650555.73746224795</v>
       </c>
     </row>
-    <row r="36" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="36" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO36" s="1">
         <v>10.872173600075101</v>
       </c>
@@ -5414,7 +6457,7 @@
         <v>653985.96400616469</v>
       </c>
     </row>
-    <row r="37" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO37" s="1">
         <v>11.14938332324</v>
       </c>
@@ -5471,7 +6514,7 @@
         <v>738802.66754500312</v>
       </c>
     </row>
-    <row r="38" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="38" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO38" s="1">
         <v>11.244527712921601</v>
       </c>
@@ -5528,7 +6571,7 @@
         <v>726177.34885087097</v>
       </c>
     </row>
-    <row r="39" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="39" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO39" s="1">
         <v>11.525103974042599</v>
       </c>
@@ -5585,7 +6628,7 @@
         <v>770406.97030663514</v>
       </c>
     </row>
-    <row r="40" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="40" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO40" s="1">
         <v>11.617169282497599</v>
       </c>
@@ -5642,7 +6685,7 @@
         <v>744585.79635566263</v>
       </c>
     </row>
-    <row r="41" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO41" s="1">
         <v>11.900893396319301</v>
       </c>
@@ -5699,7 +6742,7 @@
         <v>748049.69206503639</v>
       </c>
     </row>
-    <row r="42" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO42" s="1">
         <v>12.0196038816295</v>
       </c>
@@ -5756,7 +6799,7 @@
         <v>701260.45015312592</v>
       </c>
     </row>
-    <row r="43" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="43" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO43" s="1">
         <v>12.2767452995332</v>
       </c>
@@ -5813,7 +6856,7 @@
         <v>680831.97056598798</v>
       </c>
     </row>
-    <row r="44" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="44" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO44" s="1">
         <v>12.3918560210099</v>
       </c>
@@ -5870,7 +6913,7 @@
         <v>627997.48640883341</v>
       </c>
     </row>
-    <row r="45" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="45" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO45" s="1">
         <v>12.639573489512699</v>
       </c>
@@ -5927,7 +6970,7 @@
         <v>588088.28855429764</v>
       </c>
     </row>
-    <row r="46" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="46" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO46" s="1">
         <v>12.740215729918701</v>
       </c>
@@ -5984,7 +7027,7 @@
         <v>539651.39131171512</v>
       </c>
     </row>
-    <row r="47" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="47" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO47" s="1">
         <v>13.0159111723574</v>
       </c>
@@ -6041,7 +7084,7 @@
         <v>471162.15987934783</v>
       </c>
     </row>
-    <row r="48" spans="41:65" x14ac:dyDescent="0.25">
+    <row r="48" spans="41:81" x14ac:dyDescent="0.35">
       <c r="AO48" s="1">
         <v>13.11366866172</v>
       </c>
